--- a/Form_35E_Specs.xlsx
+++ b/Form_35E_Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amekanik\Documents\Visual Studio 2022\Test\Form35E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F9CF0D-15AB-4348-AA38-46594546FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922DD69-24FA-4348-87C3-F63CFF04DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,7 +249,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>MEPP - (EC1+EC2+EC3+EC4) + EC5</t>
+      <t>MEPP - (EC1+EC2+EC3+EC4) + EC5
+(These EC values should be calculated using MEPP X % value instead of the more complex EC % formula)</t>
     </r>
     <r>
       <rPr>
@@ -719,7 +720,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>

--- a/Form_35E_Specs.xlsx
+++ b/Form_35E_Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amekanik\Documents\Visual Studio 2022\Test\Form35E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922DD69-24FA-4348-87C3-F63CFF04DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413EC848-16E5-4FF1-8D37-CF92A0A9EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
     <t>Adjusted EPP</t>
   </si>
   <si>
-    <t>AENP + (EC1+EC2+EC3+EC4) – EC5</t>
+    <t>Same as MEPP</t>
   </si>
   <si>
     <r>
@@ -249,8 +249,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>MEPP - (EC1+EC2+EC3+EC4) + EC5
-(These EC values should be calculated using MEPP X % value instead of the more complex EC % formula)</t>
+      <t>MEPP - (MC1+MC2+MC3+MC4) + MC5
+(These MC values should be calculated using EC $ amounts or MEPP x EC % value instead of the more complex original EC % formula)</t>
     </r>
     <r>
       <rPr>
@@ -720,7 +720,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>59</v>
       </c>

--- a/Form_35E_Specs.xlsx
+++ b/Form_35E_Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amekanik\Documents\Visual Studio 2022\Test\Form35E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413EC848-16E5-4FF1-8D37-CF92A0A9EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6881247-3A89-4207-94DE-3E8232D5FC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Field Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Maximum EPP</t>
   </si>
   <si>
-    <t>Credits to Seller in Escalated Offer</t>
-  </si>
-  <si>
     <t>Escalated Offer’s New Purchase Price</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Line 53</t>
   </si>
   <si>
-    <t>Line 54</t>
-  </si>
-  <si>
     <t>Line 55</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>This is the BBC amount, if any, requested by Escalated Offer Buyer in the PSA in Specific Term 17(b) (or for some PSAs in Specific Term 18(b)).</t>
   </si>
   <si>
-    <t>This is any amount credited to the seller in the Escalated Offer. These could include buyer agreeing to pay the seller’s portion of the escrow fee, title fee.</t>
-  </si>
-  <si>
     <t>PPCO</t>
   </si>
   <si>
@@ -171,30 +162,12 @@
     <t>MEPP</t>
   </si>
   <si>
-    <t>EC1</t>
-  </si>
-  <si>
-    <t>EC2</t>
-  </si>
-  <si>
-    <t>EC3</t>
-  </si>
-  <si>
-    <t>EC4</t>
-  </si>
-  <si>
-    <t>EC5</t>
-  </si>
-  <si>
     <t>Direct entry as E</t>
   </si>
   <si>
     <t>Direct entry as MEPP</t>
   </si>
   <si>
-    <t>$ or % - If % [ENP/(1-%) - ENP]</t>
-  </si>
-  <si>
     <t>$ or % - If % [% x PPCO]</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
     <t>EPP</t>
   </si>
   <si>
-    <t>ENP + (EC1+EC2+EC3+EC4) – EC5</t>
-  </si>
-  <si>
     <t>This is the new purchase price of the escalated offer.</t>
   </si>
   <si>
@@ -235,6 +205,37 @@
   </si>
   <si>
     <t>Same as MEPP</t>
+  </si>
+  <si>
+    <t>EC$ +</t>
+  </si>
+  <si>
+    <t>EC$ -</t>
+  </si>
+  <si>
+    <t>EC% -</t>
+  </si>
+  <si>
+    <t>EC% +</t>
+  </si>
+  <si>
+    <t>ENP + EC$</t>
+  </si>
+  <si>
+    <t>ENPA</t>
+  </si>
+  <si>
+    <t>[ENPA/(1-%) - ENPA]</t>
+  </si>
+  <si>
+    <t>ECP%</t>
+  </si>
+  <si>
+    <t>Delta between EC%+ and EC%-</t>
+  </si>
+  <si>
+    <t>ENPA + (ECP%+)
+ECP% could be negative</t>
   </si>
   <si>
     <r>
@@ -249,7 +250,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>MEPP - (MC1+MC2+MC3+MC4) + MC5
+      <t>MEPP - (MC1-MC2+MC3-MC4)
 (These MC values should be calculated using EC $ amounts or MEPP x EC % value instead of the more complex original EC % formula)</t>
     </r>
     <r>
@@ -351,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,6 +374,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,10 +724,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -752,19 +759,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -775,270 +782,254 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="C23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Form_35E_Specs.xlsx
+++ b/Form_35E_Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amekanik\Documents\Visual Studio 2022\Test\Form35E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6881247-3A89-4207-94DE-3E8232D5FC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263672D7-7782-4A31-B4A9-4B33FDAC5312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Field Name</t>
   </si>
@@ -45,21 +45,6 @@
     <t>Purchase Price of Competing Offer</t>
   </si>
   <si>
-    <t>Credits to Buyer in Form 41C</t>
-  </si>
-  <si>
-    <t>Credits to Buyer in Form 22A</t>
-  </si>
-  <si>
-    <t>BBC in Specific Term 17(b)</t>
-  </si>
-  <si>
-    <t>Any other concessions or credits to Buyer</t>
-  </si>
-  <si>
-    <t>Credits to Seller in Competing Offer</t>
-  </si>
-  <si>
     <t>Competing Offer Net Purchase Price</t>
   </si>
   <si>
@@ -78,54 +63,12 @@
     <t>Line 46</t>
   </si>
   <si>
-    <t>Line 49</t>
-  </si>
-  <si>
-    <t>Line 50</t>
-  </si>
-  <si>
     <t>Line 51</t>
   </si>
   <si>
-    <t>Line 52</t>
-  </si>
-  <si>
-    <t>Line 53</t>
-  </si>
-  <si>
     <t>Line 55</t>
   </si>
   <si>
-    <t>If the Competing Offer contains an escalation provision, enter the maximum purchase price of the Competing Offer. The maximum price is on line 13 of Form 35E.</t>
-  </si>
-  <si>
-    <t>This is the credit amount, if any, requested by the Competing Offer Buyer in Form 41C.</t>
-  </si>
-  <si>
-    <t>This is the credit amount, if any, requested by the Competing Offer Buyer in Form 22A, Line 43.</t>
-  </si>
-  <si>
-    <t>This is the BBC amount, if any, requested by Competing Offer Buyer in the PSA in Specific Term 17(b) (or for some PSAs in Specific Term 18(b)).</t>
-  </si>
-  <si>
-    <t>These could include concessions or credits for repairs, escrow fees, interest rate buye downs, or other payments not in the fields above.</t>
-  </si>
-  <si>
-    <t>This is any amount credited to the seller in the Competing Offer. These could include buyer agreeing to pay the seller’s portion of the escrow fee, title fee.</t>
-  </si>
-  <si>
-    <t>This is the Escalation Amount in Form 35E, line 12 of the Escalated Offer.</t>
-  </si>
-  <si>
-    <t>This is the credit amount, if any, requested by the Escalated Offer Buyer in Form 41C.</t>
-  </si>
-  <si>
-    <t>This is the credit amount, if any, requested by the Escalated Offer Buyer in Form 22A, Line 43.</t>
-  </si>
-  <si>
-    <t>This is the BBC amount, if any, requested by Escalated Offer Buyer in the PSA in Specific Term 17(b) (or for some PSAs in Specific Term 18(b)).</t>
-  </si>
-  <si>
     <t>PPCO</t>
   </si>
   <si>
@@ -147,15 +90,9 @@
     <t>C4</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>Direct entry as PPCO</t>
   </si>
   <si>
-    <t>PPCO - (C1+C2+C3+C4) + C5</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -168,9 +105,6 @@
     <t>Direct entry as MEPP</t>
   </si>
   <si>
-    <t>$ or % - If % [% x PPCO]</t>
-  </si>
-  <si>
     <t>Form 35E</t>
   </si>
   <si>
@@ -181,9 +115,6 @@
   </si>
   <si>
     <t>AENP</t>
-  </si>
-  <si>
-    <t>This is the Maximum EPP in Form 35E, line 13.  EPP may not exceed this amount.</t>
   </si>
   <si>
     <t>If Adjusted ENP is less than NPPCO, then this Escalated Offer is NOT the highest</t>
@@ -236,11 +167,48 @@
   <si>
     <t>ENPA + (ECP%+)
 ECP% could be negative</t>
+  </si>
+  <si>
+    <t>Buyer Credits as $</t>
+  </si>
+  <si>
+    <t>Buyer Creidits as %</t>
+  </si>
+  <si>
+    <t>Seller Credits as $</t>
+  </si>
+  <si>
+    <t>Seller Credits as %</t>
+  </si>
+  <si>
+    <t>(C2 / 100) x PPCO</t>
+  </si>
+  <si>
+    <t>(C4 / 100) x PPCO</t>
+  </si>
+  <si>
+    <t>$C1</t>
+  </si>
+  <si>
+    <t>$C3</t>
+  </si>
+  <si>
+    <t>PPCO + C3 + C4 - C1 - C2</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">IF EPP &gt; MEPP THEN: 
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MEPP  + MC3 + MC4 - MC3 - MC4</t>
     </r>
     <r>
       <rPr>
@@ -250,7 +218,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>MEPP - (MC1-MC2+MC3-MC4)
+      <t xml:space="preserve">
 (These MC values should be calculated using EC $ amounts or MEPP x EC % value instead of the more complex original EC % formula)</t>
     </r>
     <r>
@@ -352,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +348,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,10 +693,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -759,19 +728,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -782,254 +748,180 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
+      <c r="B22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
